--- a/123.xlsx
+++ b/123.xlsx
@@ -8,35 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modri\IH-labs\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0C9D6-E11A-4AE5-8160-802A839FB937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3882AEB0-DEDB-47EE-9A0C-0ED25E32FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="213">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -320,6 +309,9 @@
     <t>Latvia</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
     <t>Lesotho</t>
   </si>
   <si>
@@ -602,6 +594,15 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
     <t>Bosnia-Herzegovina</t>
   </si>
   <si>
@@ -663,15 +664,6 @@
   </si>
   <si>
     <t>Nation</t>
-  </si>
-  <si>
-    <t>Leba</t>
-  </si>
-  <si>
-    <t>Pro Players</t>
-  </si>
-  <si>
-    <t>All Players</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +992,7 @@
   <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,19 +1002,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1036,31 +1034,67 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1112,16 +1146,34 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1135,11 +1187,23 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1164,6 +1228,12 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -1194,26 +1264,44 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="C29">
-        <v>12000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -1235,11 +1323,23 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -1269,21 +1369,45 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -1298,7 +1422,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C43">
         <v>711235</v>
@@ -1339,7 +1463,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B47">
         <v>1000</v>
@@ -1350,7 +1474,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B48">
         <v>2000</v>
@@ -1405,7 +1529,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B53">
         <v>100</v>
@@ -1422,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="C54">
-        <v>19203</v>
+        <v>19.202999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1457,7 +1581,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B58">
         <v>100</v>
@@ -1608,7 +1732,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1753,7 +1877,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B86">
         <v>250</v>
@@ -1772,7 +1896,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B88">
         <v>1500</v>
@@ -1824,7 +1948,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B93">
         <v>1500</v>
@@ -1859,6 +1983,12 @@
       <c r="A96" t="s">
         <v>84</v>
       </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -1917,12 +2047,18 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B103">
         <v>2500</v>
@@ -1955,7 +2091,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -1988,7 +2124,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="B109">
         <v>200</v>
@@ -1999,7 +2135,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C110">
         <v>5000</v>
@@ -2007,12 +2143,18 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B112">
         <v>700</v>
@@ -2020,12 +2162,18 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C114">
         <v>30000</v>
@@ -2033,27 +2181,51 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B116" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B118" t="s">
+        <v>191</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119">
         <v>1000000</v>
@@ -2061,25 +2233,40 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122">
         <v>220</v>
       </c>
+      <c r="C122" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123">
         <v>65000</v>
@@ -2087,12 +2274,18 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125">
         <v>9464</v>
@@ -2103,52 +2296,106 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B130" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B131" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="B133" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="B134" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C135">
         <v>1240437</v>
@@ -2156,12 +2403,18 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="B136" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C137">
         <v>142000</v>
@@ -2169,7 +2422,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138">
         <v>200</v>
@@ -2180,27 +2433,51 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B140" t="s">
+        <v>191</v>
+      </c>
+      <c r="C140" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="B141" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B142" t="s">
+        <v>191</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C143" s="1">
         <v>378539</v>
@@ -2208,7 +2485,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C144">
         <v>8500</v>
@@ -2216,7 +2493,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C145">
         <v>100000</v>
@@ -2224,42 +2501,78 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B148" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="B149" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B151" t="s">
+        <v>191</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C153">
         <v>195330</v>
@@ -2267,12 +2580,18 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B154" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155">
         <v>300000</v>
@@ -2280,60 +2599,117 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B156" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="B157" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B158" t="s">
+        <v>191</v>
+      </c>
+      <c r="C158" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="B160" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B164">
         <v>4796</v>
       </c>
+      <c r="C164" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B166">
         <v>1330</v>
@@ -2344,22 +2720,40 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B167" t="s">
+        <v>191</v>
+      </c>
+      <c r="C167" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="B168" t="s">
+        <v>191</v>
+      </c>
+      <c r="C168" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>191</v>
+      </c>
+      <c r="C169" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C170">
         <v>400000</v>
@@ -2367,7 +2761,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B171">
         <v>400</v>
@@ -2378,22 +2772,40 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="B172" t="s">
+        <v>191</v>
+      </c>
+      <c r="C172" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>191</v>
+      </c>
+      <c r="C173" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="B174" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B175">
         <v>8560</v>
@@ -2404,22 +2816,40 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B176" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="B177" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="B178" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C179">
         <v>440466</v>
@@ -2427,7 +2857,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C180">
         <v>268000</v>
@@ -2435,52 +2865,106 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+      <c r="B182" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="B183" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+      <c r="C185" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C190">
         <v>40844</v>
@@ -2488,7 +2972,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B191">
         <v>3917</v>
@@ -2499,12 +2983,18 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C193">
         <v>80000</v>
@@ -2512,7 +3002,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C194">
         <v>692317</v>
@@ -2520,12 +3010,18 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="B195" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B196">
         <v>1696</v>
@@ -2536,12 +3032,12 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C198">
         <v>165000</v>
@@ -2549,7 +3045,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C199">
         <v>380000</v>
@@ -2557,17 +3053,17 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C202">
         <v>86192</v>
@@ -2575,7 +3071,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C203">
         <v>126799</v>
@@ -2583,40 +3079,82 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="B204" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="B205" t="s">
+        <v>191</v>
+      </c>
+      <c r="C205" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
+        <v>191</v>
+      </c>
+      <c r="C206" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>191</v>
+      </c>
+      <c r="C207" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>191</v>
+      </c>
+      <c r="C208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>191</v>
+      </c>
+      <c r="C209" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>191</v>
+      </c>
+      <c r="C210" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
     </row>
   </sheetData>
